--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3557.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3557.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.315173623644502</v>
+        <v>0.8264381885528564</v>
       </c>
       <c r="B1">
-        <v>1.476790956122196</v>
+        <v>1.554640531539917</v>
       </c>
       <c r="C1">
-        <v>1.803152648522978</v>
+        <v>3.039249897003174</v>
       </c>
       <c r="D1">
-        <v>3.402213804740333</v>
+        <v>1.413041472434998</v>
       </c>
       <c r="E1">
-        <v>5.126920718437453</v>
+        <v>1.522042751312256</v>
       </c>
     </row>
   </sheetData>
